--- a/biology/Zoologie/Bradybate_à_queue_rouge/Bradybate_à_queue_rouge.xlsx
+++ b/biology/Zoologie/Bradybate_à_queue_rouge/Bradybate_à_queue_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bradybate_%C3%A0_queue_rouge</t>
+          <t>Bradybate_à_queue_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luscinia phoenicuroides
-Le Bradybate à queue rouge (Luscinia phoenicuroides, anciennement Hodgsonius phoenicuroides[1]) est une espèce de passereaux de la famille des Muscicapidae.
+Le Bradybate à queue rouge (Luscinia phoenicuroides, anciennement Hodgsonius phoenicuroides) est une espèce de passereaux de la famille des Muscicapidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bradybate_%C3%A0_queue_rouge</t>
+          <t>Bradybate_à_queue_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bradybate_%C3%A0_queue_rouge</t>
+          <t>Bradybate_à_queue_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,12 +549,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Comportement</t>
+          <t>Répartition et habitat</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Reproduction</t>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit au Bhoutan, en Birmanie, en Chine, en Inde, au Laos, au Népal, au Pakistan, en Thaïlande et au Vietnam.
+</t>
         </is>
       </c>
     </row>
@@ -550,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bradybate_%C3%A0_queue_rouge</t>
+          <t>Bradybate_à_queue_rouge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,10 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition
-Cet oiseau vit au Bhoutan, en Birmanie, en Chine, en Inde, au Laos, au Népal, au Pakistan, en Thaïlande et au Vietnam.
-Habitat
-Il peuple les forêts tempérées.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peuple les forêts tempérées.
 </t>
         </is>
       </c>
@@ -584,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bradybate_%C3%A0_queue_rouge</t>
+          <t>Bradybate_à_queue_rouge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,16 +626,87 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Hodgsonius phoenicuroides a été décrite par les ornithologues britanniques John Edward Gray et George Robert Gray, en 1847, sous le nom initial de Bradypterus phoenicuroides. Elle a longtemps porté, de manière erronée, le nom scientifique Hodgsonius phaenicuroides[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hodgsonius phoenicuroides a été décrite par les ornithologues britanniques John Edward Gray et George Robert Gray, en 1847, sous le nom initial de Bradypterus phoenicuroides. Elle a longtemps porté, de manière erronée, le nom scientifique Hodgsonius phaenicuroides.
 S'appuyant sur diverses études phylogéniques, le Congrès ornithologique international (classification version 4.1, 2014) déplace cette espèce, alors placée dans le genre Hodgsonius Bonaparte, 1850, dans le genre Luscinia.
-Sous-espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bradybate_à_queue_rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bradybate_%C3%A0_queue_rouge</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes :
 Luscinia phoenicuroides ichangensis (E.C.S. Baker, 1922) ;
-Luscinia phoenicuroides phoenicuroides (J.E. Gray &amp; G.R. Gray, 1847).
-Synonymes
-Bradypterus phaenicuroides J.E. Gray &amp; G.R. Gray, 1847 (protonyme)
+Luscinia phoenicuroides phoenicuroides (J.E. Gray &amp; G.R. Gray, 1847).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bradybate_à_queue_rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bradybate_%C3%A0_queue_rouge</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bradypterus phaenicuroides J.E. Gray &amp; G.R. Gray, 1847 (protonyme)
 Hodgsonius phoenicuroides</t>
         </is>
       </c>
